--- a/하루하루/프로젝트 관리.xlsx
+++ b/하루하루/프로젝트 관리.xlsx
@@ -2204,7 +2204,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="I20:J20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
